--- a/source/assets/file-download/Vorlage_Metadaten.xlsx
+++ b/source/assets/file-download/Vorlage_Metadaten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lstubert/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisa/Documents/GitHub/odis-website/source/assets/file-download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D0AB62-A5D3-CE48-8A48-3A0A8EF75BB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC31C40-FF50-4840-94B0-A6EB88056806}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="980" windowWidth="33000" windowHeight="18180" xr2:uid="{4BFB4CA5-C4EB-764E-ADB0-CC1DCDB87EF1}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="26780" windowHeight="15160" xr2:uid="{4BFB4CA5-C4EB-764E-ADB0-CC1DCDB87EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Geographische Abdeckung</t>
   </si>
   <si>
-    <t>Angabe welcher Raum vom gesamten Datensatz abgedeckt wird. Das kann z.B. ganz Berlin sein oder ein bestimmter Bezirk.</t>
-  </si>
-  <si>
     <t>Berlin</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mehr Informationen zu Metadaten für das Open-Data-Porta Berlin finden sie im </t>
+  </si>
+  <si>
+    <t>Angabe welcher Raum vom gesamten Datensatz abgedeckt wird. Das kann z.B. ganz Berlin sein oder ein bestimmter Bezirk oder Ortsteil.</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1545524</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>136954</xdr:rowOff>
+      <xdr:rowOff>136953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -514,7 +514,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2170998</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>91654</xdr:rowOff>
+      <xdr:rowOff>91653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -562,7 +562,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>3384302</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>126126</xdr:rowOff>
+      <xdr:rowOff>126125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF1181D-5FDD-A144-9ACB-6A334FC16B87}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -930,10 +930,10 @@
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" ht="51">
       <c r="A2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="3" spans="1:4" ht="34">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="4" t="s">
@@ -956,7 +956,7 @@
     </row>
     <row r="4" spans="1:4" ht="51">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="4" t="s">
@@ -968,7 +968,7 @@
     </row>
     <row r="5" spans="1:4" ht="138" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
@@ -980,7 +980,7 @@
     </row>
     <row r="6" spans="1:4" ht="34">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
@@ -1004,7 +1004,7 @@
     </row>
     <row r="8" spans="1:4" ht="85">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
@@ -1028,7 +1028,7 @@
     </row>
     <row r="10" spans="1:4" ht="68">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="13" t="s">
@@ -1052,7 +1052,7 @@
     </row>
     <row r="12" spans="1:4" ht="51">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="4" t="s">
@@ -1110,45 +1110,43 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="38">
+    <row r="17" spans="1:4" ht="51">
       <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="96" customHeight="1">
       <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17">
       <c r="A20" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1156,14 +1154,14 @@
     </row>
     <row r="22" spans="1:4" ht="19" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1171,14 +1169,14 @@
     </row>
     <row r="25" spans="1:4" ht="19" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1202,6 +1200,20 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A27:C29"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14" xr:uid="{61CC4718-151D-B343-A275-8723F10B2818}">
+      <formula1>"Keine,5 Jahre, Jahr, Quartal, Monat, Woche,Tag,Stunde, Minute, Sekunde"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{FEC2F047-E91C-A947-B2D5-F4AF041F299E}">
+      <formula1>"Keine,Deutschland,Berlin,Bezirk,Ortsteil,Prognoseraum,Bezirksregion,Planungsraum,Block,Einschulbereich,Kontaktbereich,PLZ,Stimmbezirk,Quartiersmanagment,Wohnanlage,Wahlkreis,Hausnummer,GPS-Koordinate"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{D9541A48-A23B-DE4F-8C31-D3C048F51D33}">
+      <formula1>"Dokument,Datensatz"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{696154D2-28EF-5A47-B684-29E09F3DA563}">
+      <formula1>"Privat,Öffentlich"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" location="lizenz-festlegen" display="hier." xr:uid="{5EFFDF6A-4ABE-8749-8003-447C2AB36E04}"/>
     <hyperlink ref="A23" r:id="rId2" xr:uid="{2B3CDCB1-8DA8-284A-8B79-035AC458144C}"/>
